--- a/data/financial_statements/sofp/SEE.xlsx
+++ b/data/financial_statements/sofp/SEE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>249000000</v>
+        <v>248800000</v>
       </c>
       <c r="C2">
-        <v>281000000</v>
+        <v>281200000</v>
       </c>
       <c r="D2">
-        <v>278000000</v>
+        <v>278200000</v>
       </c>
       <c r="E2">
         <v>561000000</v>
       </c>
       <c r="F2">
-        <v>394000000</v>
+        <v>393700000</v>
       </c>
       <c r="G2">
         <v>273100000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>754000000</v>
+        <v>753900000</v>
       </c>
       <c r="C3">
-        <v>733000000</v>
+        <v>732800000</v>
       </c>
       <c r="D3">
-        <v>775000000</v>
+        <v>775400000</v>
       </c>
       <c r="E3">
-        <v>733000000</v>
+        <v>732800000</v>
       </c>
       <c r="F3">
-        <v>767000000</v>
+        <v>766700000</v>
       </c>
       <c r="G3">
         <v>744499900</v>
@@ -858,20 +969,20 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>962000000</v>
+        <v>962400000</v>
       </c>
       <c r="C4">
-        <v>933000000</v>
+        <v>932700000</v>
       </c>
       <c r="D4">
-        <v>844000000</v>
+        <v>843700000</v>
       </c>
       <c r="E4">
-        <v>726000000</v>
+        <v>725700000</v>
       </c>
       <c r="F4">
         <v>741000000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>66000000</v>
@@ -996,7 +1107,7 @@
         <v>50000000</v>
       </c>
       <c r="F5">
-        <v>70000000</v>
+        <v>3300000</v>
       </c>
       <c r="G5">
         <v>58000000</v>
@@ -1078,23 +1189,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2031000000</v>
+        <v>2031200000</v>
       </c>
       <c r="C6">
-        <v>2011000000</v>
+        <v>2011100000</v>
       </c>
       <c r="D6">
         <v>1947000000</v>
       </c>
       <c r="E6">
-        <v>2070000000</v>
+        <v>2069600000</v>
       </c>
       <c r="F6">
-        <v>1971000000</v>
+        <v>1970900000</v>
       </c>
       <c r="G6">
         <v>1806700000</v>
@@ -1200,23 +1311,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1301000000</v>
+        <v>1231000000</v>
       </c>
       <c r="C7">
-        <v>1307000000</v>
+        <v>1245900000</v>
       </c>
       <c r="D7">
-        <v>1318000000</v>
+        <v>1252300000</v>
       </c>
       <c r="E7">
-        <v>1296000000</v>
+        <v>1232000000</v>
       </c>
       <c r="F7">
-        <v>1277000000</v>
+        <v>1208800000</v>
       </c>
       <c r="G7">
         <v>1202800000</v>
@@ -1322,23 +1433,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>2298000000</v>
+        <v>2297700000</v>
       </c>
       <c r="C8">
         <v>2321000000</v>
       </c>
       <c r="D8">
-        <v>2343000000</v>
+        <v>2343100000</v>
       </c>
       <c r="E8">
         <v>2342000000</v>
       </c>
       <c r="F8">
-        <v>2371000000</v>
+        <v>2370700000</v>
       </c>
       <c r="G8">
         <v>2383000000</v>
@@ -1444,8 +1555,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>117100000</v>
@@ -1566,23 +1677,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>328000000</v>
       </c>
       <c r="C10">
-        <v>340000000</v>
+        <v>340100000</v>
       </c>
       <c r="D10">
-        <v>371000000</v>
+        <v>370900000</v>
       </c>
       <c r="E10">
-        <v>384000000</v>
+        <v>383500000</v>
       </c>
       <c r="F10">
-        <v>369000000</v>
+        <v>368900000</v>
       </c>
       <c r="G10">
         <v>364100000</v>
@@ -1688,8 +1799,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>4043900000</v>
@@ -1810,23 +1921,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>6075000000</v>
+        <v>6075100000</v>
       </c>
       <c r="C12">
-        <v>6105000000</v>
+        <v>6105400000</v>
       </c>
       <c r="D12">
         <v>6117000000</v>
       </c>
       <c r="E12">
-        <v>6229000000</v>
+        <v>6229300000</v>
       </c>
       <c r="F12">
-        <v>6160000000</v>
+        <v>6159800000</v>
       </c>
       <c r="G12">
         <v>6006600000</v>
@@ -1932,23 +2043,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>913000000</v>
+        <v>912500000</v>
       </c>
       <c r="C13">
-        <v>988000000</v>
+        <v>987800000</v>
       </c>
       <c r="D13">
-        <v>958000000</v>
+        <v>958100000</v>
       </c>
       <c r="E13">
-        <v>960000000</v>
+        <v>959900000</v>
       </c>
       <c r="F13">
-        <v>918000000</v>
+        <v>918300000</v>
       </c>
       <c r="G13">
         <v>880700000</v>
@@ -2054,8 +2165,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>8500000</v>
@@ -2176,23 +2287,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>426000000</v>
+        <v>403400000</v>
       </c>
       <c r="C15">
-        <v>32000000</v>
+        <v>10700000</v>
       </c>
       <c r="D15">
-        <v>32000000</v>
+        <v>10300000</v>
       </c>
       <c r="E15">
-        <v>510000000</v>
+        <v>488500000</v>
       </c>
       <c r="F15">
-        <v>511000000</v>
+        <v>488200000</v>
       </c>
       <c r="G15">
         <v>23300000</v>
@@ -2298,8 +2409,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>26000000</v>
@@ -2369,8 +2480,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AD17">
         <v>8600000</v>
@@ -2404,23 +2515,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>513000000</v>
+        <v>504200000</v>
       </c>
       <c r="C18">
-        <v>453000000</v>
+        <v>443500000</v>
       </c>
       <c r="D18">
-        <v>453000000</v>
+        <v>444100000</v>
       </c>
       <c r="E18">
-        <v>515000000</v>
+        <v>504800000</v>
       </c>
       <c r="F18">
-        <v>472000000</v>
+        <v>464100000</v>
       </c>
       <c r="G18">
         <v>447300000</v>
@@ -2526,23 +2637,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1877000000</v>
       </c>
       <c r="C19">
-        <v>1505000000</v>
+        <v>1505400000</v>
       </c>
       <c r="D19">
-        <v>1483000000</v>
+        <v>1482900000</v>
       </c>
       <c r="E19">
-        <v>2007000000</v>
+        <v>2007300000</v>
       </c>
       <c r="F19">
-        <v>1925000000</v>
+        <v>1925400000</v>
       </c>
       <c r="G19">
         <v>1405900000</v>
@@ -2648,23 +2759,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>3288000000</v>
+        <v>3235700000</v>
       </c>
       <c r="C20">
-        <v>3700000000</v>
+        <v>3655400000</v>
       </c>
       <c r="D20">
-        <v>3735000000</v>
+        <v>3689500000</v>
       </c>
       <c r="E20">
-        <v>3264000000</v>
+        <v>3219600000</v>
       </c>
       <c r="F20">
-        <v>3363000000</v>
+        <v>3315400000</v>
       </c>
       <c r="G20">
         <v>3711800000</v>
@@ -2770,23 +2881,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>-65000000</v>
+        <v>51900000</v>
       </c>
       <c r="C21">
-        <v>-79000000</v>
+        <v>46800000</v>
       </c>
       <c r="D21">
-        <v>-93000000</v>
+        <v>45700000</v>
       </c>
       <c r="E21">
-        <v>-92000000</v>
+        <v>46700000</v>
       </c>
       <c r="F21">
-        <v>-133000000</v>
+        <v>39200000</v>
       </c>
       <c r="G21">
         <v>38600000</v>
@@ -2892,23 +3003,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>640000000</v>
+        <v>640400000</v>
       </c>
       <c r="C22">
         <v>654000000</v>
       </c>
       <c r="D22">
-        <v>663000000</v>
+        <v>662700000</v>
       </c>
       <c r="E22">
-        <v>662000000</v>
+        <v>662500000</v>
       </c>
       <c r="F22">
-        <v>704000000</v>
+        <v>704400000</v>
       </c>
       <c r="G22">
         <v>707700000</v>
@@ -3014,8 +3125,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>3979900000</v>
@@ -3136,23 +3247,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>5857000000</v>
+        <v>5856900000</v>
       </c>
       <c r="C24">
-        <v>5906000000</v>
+        <v>5905700000</v>
       </c>
       <c r="D24">
-        <v>5927000000</v>
+        <v>5926600000</v>
       </c>
       <c r="E24">
-        <v>5981000000</v>
+        <v>5980600000</v>
       </c>
       <c r="F24">
-        <v>6032000000</v>
+        <v>6032100000</v>
       </c>
       <c r="G24">
         <v>5912800000</v>
@@ -3258,8 +3369,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2145200000</v>
@@ -3380,23 +3491,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>23000000</v>
+        <v>23300000</v>
       </c>
       <c r="C26">
-        <v>23000000</v>
+        <v>23300000</v>
       </c>
       <c r="D26">
-        <v>23000000</v>
+        <v>23300000</v>
       </c>
       <c r="E26">
-        <v>23000000</v>
+        <v>23200000</v>
       </c>
       <c r="F26">
-        <v>23000000</v>
+        <v>23200000</v>
       </c>
       <c r="G26">
         <v>23200000</v>
@@ -3502,23 +3613,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3098000000</v>
+        <v>3098300000</v>
       </c>
       <c r="C27">
-        <v>2994000000</v>
+        <v>2993600000</v>
       </c>
       <c r="D27">
-        <v>2909000000</v>
+        <v>2909300000</v>
       </c>
       <c r="E27">
-        <v>2791000000</v>
+        <v>2790700000</v>
       </c>
       <c r="F27">
-        <v>2640000000</v>
+        <v>2640100000</v>
       </c>
       <c r="G27">
         <v>2562800000</v>
@@ -3624,8 +3735,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>4019100000</v>
@@ -3746,8 +3857,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AE29">
         <v>-684100000</v>
@@ -3778,23 +3889,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>218000000</v>
+        <v>218199700</v>
       </c>
       <c r="C30">
-        <v>200000000</v>
+        <v>199700000</v>
       </c>
       <c r="D30">
-        <v>190000000</v>
+        <v>190400000</v>
       </c>
       <c r="E30">
-        <v>249000000</v>
+        <v>248699800</v>
       </c>
       <c r="F30">
-        <v>128000000</v>
+        <v>127699800</v>
       </c>
       <c r="G30">
         <v>93800100</v>
@@ -3900,23 +4011,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>218000000</v>
+        <v>218200000</v>
       </c>
       <c r="C31">
-        <v>200000000</v>
+        <v>199700000</v>
       </c>
       <c r="D31">
-        <v>190000000</v>
+        <v>190400000</v>
       </c>
       <c r="E31">
-        <v>249000000</v>
+        <v>248700000</v>
       </c>
       <c r="F31">
-        <v>128000000</v>
+        <v>127700000</v>
       </c>
       <c r="G31">
         <v>93800000</v>
@@ -4022,8 +4133,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>6075100000</v>
@@ -4144,8 +4255,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>144654000</v>
@@ -4266,8 +4377,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-2079500000</v>
@@ -4388,23 +4499,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>3465000000</v>
+        <v>3390300000</v>
       </c>
       <c r="C35">
-        <v>3451000000</v>
+        <v>3384900000</v>
       </c>
       <c r="D35">
-        <v>3489000000</v>
+        <v>3421600000</v>
       </c>
       <c r="E35">
-        <v>3213000000</v>
+        <v>3147100000</v>
       </c>
       <c r="F35">
-        <v>3480000000</v>
+        <v>3409900000</v>
       </c>
       <c r="G35">
         <v>3462000000</v>
@@ -4510,23 +4621,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>3714000000</v>
+        <v>3639100000</v>
       </c>
       <c r="C36">
-        <v>3732000000</v>
+        <v>3666100000</v>
       </c>
       <c r="D36">
-        <v>3767000000</v>
+        <v>3699800000</v>
       </c>
       <c r="E36">
-        <v>3774000000</v>
+        <v>3708100000</v>
       </c>
       <c r="F36">
-        <v>3874000000</v>
+        <v>3803600000</v>
       </c>
       <c r="G36">
         <v>3735100000</v>
